--- a/_documents/1조간트차트.xlsx
+++ b/_documents/1조간트차트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\스프린트 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\silver-car-community\_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -167,18 +167,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.499984740745262"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFCDE1FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -186,44 +186,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -232,6 +250,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCDE1FF"/>
+      <color rgb="FFDCFFC1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -509,7 +533,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F14"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -518,248 +542,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="1">
         <v>45266</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="1">
         <v>45267</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1" s="1">
         <v>45268</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="1">
         <v>45269</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1" s="1">
         <v>45270</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="1">
         <v>45271</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1" s="1">
         <v>45272</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
@@ -776,17 +814,6 @@
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_documents/1조간트차트.xlsx
+++ b/_documents/1조간트차트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,38 +211,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,15 +533,15 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="17" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -550,58 +550,58 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="9">
         <v>45266</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="9">
         <v>45267</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="9">
         <v>45268</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="9">
         <v>45269</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="9">
         <v>45270</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="9">
         <v>45271</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="9">
         <v>45272</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -611,17 +611,17 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -630,174 +630,163 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="11"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="11"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
@@ -814,6 +803,17 @@
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_documents/1조간트차트.xlsx
+++ b/_documents/1조간트차트.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\silver-car-community\_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\스프린트 프로젝트\최종 산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,6 +103,126 @@
   </si>
   <si>
     <t>4. 데이터베이스 연동 및 페이지 설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 세부 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 계정 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2 차량 상세정보 표시 기능 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3 메인 페이지 검색 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 보조금 자격 팝업 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5 안전수칙 배너 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7 안전수칙 영상 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6 회원 탈퇴 기능 및 정보 수정 기능 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7 푸터  링크 기능 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8 게시판 댓글 기능 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 최종 디자인 설계 및 향후 계획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 최종 디자인 설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2 사업성 파악</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3 개선 기능 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강다솜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승찬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승찬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강다솜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강다솜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승찬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정아</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -113,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +265,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,14 +295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCDE1FF"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -202,8 +323,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -211,19 +335,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -235,17 +362,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,68 +655,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="11" max="17" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="23" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="3">
         <v>45266</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="3">
         <v>45267</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="3">
         <v>45268</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="3">
         <v>45269</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="3">
         <v>45270</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="3">
         <v>45271</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="3">
         <v>45272</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="R1" s="3">
+        <v>45273</v>
+      </c>
+      <c r="S1" s="3">
+        <v>45274</v>
+      </c>
+      <c r="T1" s="3">
+        <v>45275</v>
+      </c>
+      <c r="U1" s="3">
+        <v>45276</v>
+      </c>
+      <c r="V1" s="3">
+        <v>45277</v>
+      </c>
+      <c r="W1" s="3">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -600,39 +743,55 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2">
+        <v>45266</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45266</v>
+      </c>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -641,9 +800,19 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2">
+        <v>45266</v>
+      </c>
+      <c r="J6" s="2">
+        <v>45266</v>
+      </c>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -652,20 +821,34 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2">
+        <v>45266</v>
+      </c>
+      <c r="J7" s="2">
+        <v>45267</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -674,10 +857,19 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2">
+        <v>45268</v>
+      </c>
+      <c r="J9" s="2">
+        <v>45268</v>
+      </c>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -686,21 +878,36 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2">
+        <v>45268</v>
+      </c>
+      <c r="J10" s="2">
+        <v>45269</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -709,9 +916,17 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2">
+        <v>45268</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -720,21 +935,37 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="2">
+        <v>45268</v>
+      </c>
+      <c r="J13" s="2">
+        <v>45270</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -743,10 +974,20 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2">
+        <v>45269</v>
+      </c>
+      <c r="J15" s="2">
+        <v>45270</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -755,11 +996,20 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2">
+        <v>45270</v>
+      </c>
+      <c r="J16" s="2">
+        <v>45271</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -768,11 +1018,20 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2">
+        <v>45270</v>
+      </c>
+      <c r="J17" s="2">
+        <v>45271</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -781,12 +1040,345 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="3"/>
+      <c r="G18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="2">
+        <v>45270</v>
+      </c>
+      <c r="J18" s="2">
+        <v>45271</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="2">
+        <v>45272</v>
+      </c>
+      <c r="J20" s="2">
+        <v>45273</v>
+      </c>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2">
+        <v>45273</v>
+      </c>
+      <c r="J21" s="2">
+        <v>45274</v>
+      </c>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="2">
+        <v>45274</v>
+      </c>
+      <c r="J22" s="2">
+        <v>45275</v>
+      </c>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="2">
+        <v>45275</v>
+      </c>
+      <c r="J23" s="2">
+        <v>45275</v>
+      </c>
+      <c r="T23" s="11"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="2">
+        <v>45275</v>
+      </c>
+      <c r="J24" s="2">
+        <v>45275</v>
+      </c>
+      <c r="T24" s="11"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="2">
+        <v>45275</v>
+      </c>
+      <c r="J25" s="2">
+        <v>45276</v>
+      </c>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="2">
+        <v>45276</v>
+      </c>
+      <c r="J26" s="2">
+        <v>45277</v>
+      </c>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2">
+        <v>45276</v>
+      </c>
+      <c r="J27" s="2">
+        <v>45277</v>
+      </c>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="2">
+        <v>45276</v>
+      </c>
+      <c r="J28" s="2">
+        <v>45277</v>
+      </c>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="2">
+        <v>45276</v>
+      </c>
+      <c r="J30" s="2">
+        <v>45277</v>
+      </c>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="2">
+        <v>45278</v>
+      </c>
+      <c r="J31" s="2">
+        <v>45278</v>
+      </c>
+      <c r="W31" s="11"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="2">
+        <v>45278</v>
+      </c>
+      <c r="J32" s="2">
+        <v>45278</v>
+      </c>
+      <c r="W32" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="47">
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
@@ -803,17 +1395,6 @@
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_documents/1조간트차트.xlsx
+++ b/_documents/1조간트차트.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\스프린트 프로젝트\최종 산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\silver-car-community\_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,14 +267,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,11 +320,40 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -322,16 +376,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,10 +424,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -353,24 +442,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="7" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="보통" xfId="1" builtinId="28"/>
+  <cellStyles count="8">
+    <cellStyle name="20% - 강조색4" xfId="7" builtinId="42"/>
+    <cellStyle name="40% - 강조색1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="6" builtinId="39"/>
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="요약" xfId="3" builtinId="25"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -657,128 +776,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="23" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="23" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="4">
         <v>45266</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="4">
         <v>45267</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="4">
         <v>45268</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="4">
         <v>45269</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="4">
         <v>45270</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="4">
         <v>45271</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="4">
         <v>45272</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="4">
         <v>45273</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="4">
         <v>45274</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="4">
         <v>45275</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="4">
         <v>45276</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="4">
         <v>45277</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="4">
         <v>45278</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
@@ -789,17 +910,17 @@
       <c r="J5" s="2">
         <v>45266</v>
       </c>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">
         <v>35</v>
       </c>
@@ -810,17 +931,17 @@
       <c r="J6" s="2">
         <v>45266</v>
       </c>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
@@ -831,32 +952,32 @@
       <c r="J7" s="2">
         <v>45267</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A8" s="10" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1" t="s">
         <v>36</v>
       </c>
@@ -867,17 +988,17 @@
       <c r="J9" s="2">
         <v>45268</v>
       </c>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
@@ -890,32 +1011,32 @@
       <c r="J10" s="2">
         <v>45269</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="1" t="s">
         <v>39</v>
       </c>
@@ -924,17 +1045,17 @@
         <v>45268</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
@@ -947,33 +1068,33 @@
       <c r="J13" s="2">
         <v>45270</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A14" s="10" t="s">
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="1" t="s">
         <v>39</v>
       </c>
@@ -984,18 +1105,18 @@
       <c r="J15" s="2">
         <v>45270</v>
       </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1006,18 +1127,18 @@
       <c r="J16" s="2">
         <v>45271</v>
       </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1028,18 +1149,18 @@
       <c r="J17" s="2">
         <v>45271</v>
       </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1050,32 +1171,32 @@
       <c r="J18" s="2">
         <v>45271</v>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A19" s="10" t="s">
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1088,18 +1209,18 @@
       <c r="J20" s="2">
         <v>45273</v>
       </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1110,18 +1231,18 @@
       <c r="J21" s="2">
         <v>45274</v>
       </c>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A22" s="4" t="s">
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1132,18 +1253,18 @@
       <c r="J22" s="2">
         <v>45275</v>
       </c>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1154,17 +1275,17 @@
       <c r="J23" s="2">
         <v>45275</v>
       </c>
-      <c r="T23" s="11"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
+      <c r="T23" s="15"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1177,17 +1298,17 @@
       <c r="J24" s="2">
         <v>45275</v>
       </c>
-      <c r="T24" s="11"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
+      <c r="T24" s="15"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1198,19 +1319,19 @@
       <c r="J25" s="2">
         <v>45276</v>
       </c>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1221,18 +1342,18 @@
       <c r="J26" s="2">
         <v>45277</v>
       </c>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="1" t="s">
         <v>46</v>
       </c>
@@ -1243,18 +1364,18 @@
       <c r="J27" s="2">
         <v>45277</v>
       </c>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1265,32 +1386,32 @@
       <c r="J28" s="2">
         <v>45277</v>
       </c>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A29" s="10" t="s">
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1301,18 +1422,18 @@
       <c r="J30" s="2">
         <v>45277</v>
       </c>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1323,17 +1444,17 @@
       <c r="J31" s="2">
         <v>45278</v>
       </c>
-      <c r="W31" s="11"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
+      <c r="W31" s="20"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="1" t="s">
         <v>48</v>
       </c>
@@ -1344,22 +1465,29 @@
       <c r="J32" s="2">
         <v>45278</v>
       </c>
-      <c r="W32" s="11"/>
+      <c r="W32" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A25:F25"/>
@@ -1376,25 +1504,18 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G1:H2"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_documents/1조간트차트.xlsx
+++ b/_documents/1조간트차트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>팀원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정아</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -424,61 +428,61 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,7 +781,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -788,118 +792,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="9">
         <v>45266</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="9">
         <v>45267</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="9">
         <v>45268</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="9">
         <v>45269</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="9">
         <v>45270</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="9">
         <v>45271</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="9">
         <v>45272</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="9">
         <v>45273</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="9">
         <v>45274</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="9">
         <v>45275</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="9">
         <v>45276</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1" s="9">
         <v>45277</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1" s="9">
         <v>45278</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
@@ -910,17 +914,17 @@
       <c r="J5" s="2">
         <v>45266</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="1" t="s">
         <v>35</v>
       </c>
@@ -931,17 +935,17 @@
       <c r="J6" s="2">
         <v>45266</v>
       </c>
-      <c r="K6" s="18"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
@@ -952,53 +956,55 @@
       <c r="J7" s="2">
         <v>45267</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="I9" s="2">
         <v>45268</v>
       </c>
       <c r="J9" s="2">
         <v>45268</v>
       </c>
-      <c r="M9" s="10"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1011,8 +1017,8 @@
       <c r="J10" s="2">
         <v>45269</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -1029,14 +1035,14 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="1" t="s">
         <v>39</v>
       </c>
@@ -1045,17 +1051,17 @@
         <v>45268</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="M12" s="12"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1068,33 +1074,33 @@
       <c r="J13" s="2">
         <v>45270</v>
       </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="1" t="s">
         <v>39</v>
       </c>
@@ -1105,18 +1111,18 @@
       <c r="J15" s="2">
         <v>45270</v>
       </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1127,18 +1133,18 @@
       <c r="J16" s="2">
         <v>45271</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1149,18 +1155,18 @@
       <c r="J17" s="2">
         <v>45271</v>
       </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1171,32 +1177,32 @@
       <c r="J18" s="2">
         <v>45271</v>
       </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1209,18 +1215,18 @@
       <c r="J20" s="2">
         <v>45273</v>
       </c>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1231,18 +1237,18 @@
       <c r="J21" s="2">
         <v>45274</v>
       </c>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1253,18 +1259,18 @@
       <c r="J22" s="2">
         <v>45275</v>
       </c>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1275,17 +1281,17 @@
       <c r="J23" s="2">
         <v>45275</v>
       </c>
-      <c r="T23" s="15"/>
+      <c r="T23" s="6"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1298,17 +1304,17 @@
       <c r="J24" s="2">
         <v>45275</v>
       </c>
-      <c r="T24" s="15"/>
+      <c r="T24" s="6"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1319,19 +1325,19 @@
       <c r="J25" s="2">
         <v>45276</v>
       </c>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1342,18 +1348,18 @@
       <c r="J26" s="2">
         <v>45277</v>
       </c>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="1" t="s">
         <v>46</v>
       </c>
@@ -1364,18 +1370,18 @@
       <c r="J27" s="2">
         <v>45277</v>
       </c>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1386,32 +1392,32 @@
       <c r="J28" s="2">
         <v>45277</v>
       </c>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1422,18 +1428,18 @@
       <c r="J30" s="2">
         <v>45277</v>
       </c>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1444,17 +1450,17 @@
       <c r="J31" s="2">
         <v>45278</v>
       </c>
-      <c r="W31" s="20"/>
+      <c r="W31" s="8"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="1" t="s">
         <v>48</v>
       </c>
@@ -1465,10 +1471,41 @@
       <c r="J32" s="2">
         <v>45278</v>
       </c>
-      <c r="W32" s="20"/>
+      <c r="W32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A18:F18"/>
@@ -1485,37 +1522,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
